--- a/week4_inflation/data/원유가격_202107_202206.xlsx
+++ b/week4_inflation/data/원유가격_202107_202206.xlsx
@@ -2,40 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fdb7fe0c9aa2911/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINSU\BigData_KNU\team_project\week4_inflation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA7D1DD2-7045-4E7F-9BA4-D1FCBF101153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8422B44-3BFA-46E7-B0D1-B606D45A55AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="1716" windowWidth="17280" windowHeight="9960" xr2:uid="{8C887158-57B8-4E77-A167-009BAEF7017D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>구 분</t>
   </si>
@@ -43,46 +28,10 @@
     <t>WTI</t>
   </si>
   <si>
-    <t>Brent</t>
-  </si>
-  <si>
     <t>Dubai</t>
   </si>
   <si>
-    <t>2022년 6월</t>
-  </si>
-  <si>
-    <t>2022년 5월</t>
-  </si>
-  <si>
-    <t>2022년 4월</t>
-  </si>
-  <si>
-    <t>2022년 3월</t>
-  </si>
-  <si>
-    <t>2022년 2월</t>
-  </si>
-  <si>
-    <t>2022년 1월</t>
-  </si>
-  <si>
-    <t>2021년 12월</t>
-  </si>
-  <si>
-    <t>2021년 11월</t>
-  </si>
-  <si>
-    <t>2021년 10월</t>
-  </si>
-  <si>
-    <t>2021년 9월</t>
-  </si>
-  <si>
-    <t>2021년 8월</t>
-  </si>
-  <si>
-    <t>2021년 7월</t>
+    <t>Brent</t>
   </si>
 </sst>
 </file>
@@ -92,31 +41,25 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -128,14 +71,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC2EFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC2EFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,7 +88,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -168,14 +109,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -238,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -290,7 +234,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -406,21 +350,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -482,209 +426,209 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56102CB8-A781-4A03-8B05-44C0E8960318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="2">
+        <v>2022.06</v>
+      </c>
+      <c r="B2" s="3">
         <v>114.34</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>117.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>113.27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="2">
+        <v>2022.05</v>
+      </c>
+      <c r="B3" s="3">
         <v>109.26</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>111.96</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>108.16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="2">
+        <v>2022.04</v>
+      </c>
+      <c r="B4" s="3">
         <v>101.64</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>105.92</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>102.82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="2">
+        <v>2022.03</v>
+      </c>
+      <c r="B5" s="3">
         <v>108.26</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>112.46</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>110.93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="2">
+        <v>2022.02</v>
+      </c>
+      <c r="B6" s="3">
         <v>91.63</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>94.1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>92.36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="2">
+        <v>2022.01</v>
+      </c>
+      <c r="B7" s="3">
         <v>82.98</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>85.57</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>83.47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="2">
+        <v>2021.12</v>
+      </c>
+      <c r="B8" s="3">
         <v>71.69</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>74.8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>73.209999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="2">
+        <v>2021.11</v>
+      </c>
+      <c r="B9" s="3">
         <v>78.650000000000006</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>80.849999999999994</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>80.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="2">
+        <v>2021.1</v>
+      </c>
+      <c r="B10" s="3">
         <v>81.22</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>83.75</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>81.61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="2">
+        <v>2021.09</v>
+      </c>
+      <c r="B11" s="3">
         <v>71.540000000000006</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>74.88</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>72.63</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="2">
+        <v>2021.08</v>
+      </c>
+      <c r="B12" s="3">
         <v>67.709999999999994</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>70.510000000000005</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>69.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="A13" s="2">
+        <v>2021.07</v>
+      </c>
+      <c r="B13" s="3">
         <v>72.430000000000007</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>74.290000000000006</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>72.930000000000007</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>